--- a/biology/Médecine/Sténose_hypertrophique_du_pylore/Sténose_hypertrophique_du_pylore.xlsx
+++ b/biology/Médecine/Sténose_hypertrophique_du_pylore/Sténose_hypertrophique_du_pylore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9nose_hypertrophique_du_pylore</t>
+          <t>Sténose_hypertrophique_du_pylore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sténose hypertrophique du pylore est une hypertrophie du sphincter du pylore qui obstrue l'accès au duodénum ce qui peut poser d'énormes soucis de l'estomac ce qui cause des vomissements isolés et elle peut directement aboutir à une intolérance alimentaire totale.
 </t>
